--- a/docs/backlog (Автосохраненный).xlsx
+++ b/docs/backlog (Автосохраненный).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Чистильчик мусора, для файлов не удаленных во время, смотреть дату файла</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Подключить систему шаблонов для js</t>
+  </si>
+  <si>
+    <t>Офлайн режим работы</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +469,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/backlog (Автосохраненный).xlsx
+++ b/docs/backlog (Автосохраненный).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Чистильчик мусора, для файлов не удаленных во время, смотреть дату файла</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>Офлайн режим работы</t>
+  </si>
+  <si>
+    <t>Сжимать файлы для скорости и безопасности(http://marijnhaverbeke.nl//uglifyjs)</t>
+  </si>
+  <si>
+    <t>поддержка кодирование в gif format</t>
+  </si>
+  <si>
+    <t>"use strict";</t>
+  </si>
+  <si>
+    <t>Зависание во время обработки изображений в браузере</t>
+  </si>
+  <si>
+    <t>Удалить коды с гитхаба</t>
   </si>
 </sst>
 </file>
@@ -403,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +489,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
